--- a/output/1Y_P23_KFSDIV.xlsx
+++ b/output/1Y_P23_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>12.5846</v>
       </c>
       <c r="C2" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D2" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>794.622</v>
+        <v>793.034</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>12.2867</v>
       </c>
       <c r="C3" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D3" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E3" s="1">
-        <v>794.622</v>
+        <v>793.034</v>
       </c>
       <c r="F3" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="H3" s="1">
-        <v>9763.2821</v>
+        <v>9724.2621</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9763.2821</v>
+        <v>9724.2621</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0237</v>
+        <v>-0.0276</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>13.0645</v>
       </c>
       <c r="C4" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D4" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E4" s="1">
-        <v>1608.5102</v>
+        <v>1605.2959</v>
       </c>
       <c r="F4" s="1">
-        <v>765.433</v>
+        <v>763.9011</v>
       </c>
       <c r="H4" s="1">
-        <v>21014.3813</v>
+        <v>20930.49</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21014.3813</v>
+        <v>20930.49</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.4339</v>
+        <v>12.4588</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0633</v>
+        <v>0.0612</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>13.8083</v>
       </c>
       <c r="C5" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D5" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E5" s="1">
-        <v>2373.9432</v>
+        <v>2369.197</v>
       </c>
       <c r="F5" s="1">
-        <v>724.2021</v>
+        <v>722.7522</v>
       </c>
       <c r="H5" s="1">
-        <v>32780.1203</v>
+        <v>32649.1929</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>32780.1203</v>
+        <v>32649.1929</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.6372</v>
+        <v>12.6625</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0569</v>
+        <v>0.0556</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>13.5636</v>
       </c>
       <c r="C6" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D6" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E6" s="1">
-        <v>3098.1453</v>
+        <v>3091.9492</v>
       </c>
       <c r="F6" s="1">
-        <v>737.2674</v>
+        <v>735.7919000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>42022.0041</v>
+        <v>41854.1707</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>42022.0041</v>
+        <v>41854.1707</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.911</v>
+        <v>12.9368</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1068.2745</v>
+        <v>1066.1386</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8931.7255</v>
+        <v>-8933.8614</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0177</v>
+        <v>-0.0186</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>13.1788</v>
       </c>
       <c r="C7" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D7" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E7" s="1">
-        <v>3835.4127</v>
+        <v>3827.7411</v>
       </c>
       <c r="F7" s="1">
-        <v>770.3744</v>
+        <v>768.8112</v>
       </c>
       <c r="H7" s="1">
-        <v>50546.1373</v>
+        <v>50343.9818</v>
       </c>
       <c r="I7" s="1">
-        <v>1068.2745</v>
+        <v>1066.1386</v>
       </c>
       <c r="J7" s="1">
-        <v>51614.4118</v>
+        <v>51410.1205</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.0364</v>
+        <v>13.0625</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10152.6106</v>
+        <v>-10152.3055</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0078</v>
+        <v>-0.0086</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>14.5668</v>
       </c>
       <c r="C8" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D8" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E8" s="1">
-        <v>4605.7872</v>
+        <v>4596.5523</v>
       </c>
       <c r="F8" s="1">
-        <v>696.9692</v>
+        <v>695.554</v>
       </c>
       <c r="H8" s="1">
-        <v>67091.5805</v>
+        <v>66823.298</v>
       </c>
       <c r="I8" s="1">
-        <v>915.6638</v>
+        <v>913.8330999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>68007.2444</v>
+        <v>67737.1311</v>
       </c>
       <c r="K8" s="1">
-        <v>60152.6106</v>
+        <v>60152.3055</v>
       </c>
       <c r="L8" s="1">
-        <v>13.0602</v>
+        <v>13.0864</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10152.6106</v>
+        <v>-10152.3055</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.1038</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>13.962</v>
       </c>
       <c r="C9" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D9" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E9" s="1">
-        <v>5302.7563</v>
+        <v>5292.1062</v>
       </c>
       <c r="F9" s="1">
-        <v>727.1602</v>
+        <v>725.683</v>
       </c>
       <c r="H9" s="1">
-        <v>74037.08409999999</v>
+        <v>73740.7374</v>
       </c>
       <c r="I9" s="1">
-        <v>763.0531999999999</v>
+        <v>761.5276</v>
       </c>
       <c r="J9" s="1">
-        <v>74800.1373</v>
+        <v>74502.265</v>
       </c>
       <c r="K9" s="1">
-        <v>70305.2213</v>
+        <v>70304.611</v>
       </c>
       <c r="L9" s="1">
-        <v>13.2582</v>
+        <v>13.2848</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2072.6042</v>
+        <v>2068.4485</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8080.0064</v>
+        <v>-8083.857</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0411</v>
+        <v>-0.0416</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>12.2659</v>
       </c>
       <c r="C10" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D10" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E10" s="1">
-        <v>6029.9165</v>
+        <v>6017.7893</v>
       </c>
       <c r="F10" s="1">
-        <v>869.9534</v>
+        <v>868.1028</v>
       </c>
       <c r="H10" s="1">
-        <v>73962.3533</v>
+        <v>73666.1654</v>
       </c>
       <c r="I10" s="1">
-        <v>2683.0468</v>
+        <v>2677.6706</v>
       </c>
       <c r="J10" s="1">
-        <v>76645.4001</v>
+        <v>76343.836</v>
       </c>
       <c r="K10" s="1">
-        <v>80457.8319</v>
+        <v>80456.9166</v>
       </c>
       <c r="L10" s="1">
-        <v>13.3431</v>
+        <v>13.3698</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10670.7617</v>
+        <v>-10669.4177</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.09619999999999999</v>
+        <v>-0.0965</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>12.4103</v>
       </c>
       <c r="C11" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D11" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E11" s="1">
-        <v>6899.87</v>
+        <v>6885.8921</v>
       </c>
       <c r="F11" s="1">
-        <v>859.8311</v>
+        <v>858.0013</v>
       </c>
       <c r="H11" s="1">
-        <v>85629.4562</v>
+        <v>85285.2162</v>
       </c>
       <c r="I11" s="1">
-        <v>2012.2851</v>
+        <v>2008.253</v>
       </c>
       <c r="J11" s="1">
-        <v>87641.74129999999</v>
+        <v>87293.46920000001</v>
       </c>
       <c r="K11" s="1">
-        <v>91128.59359999999</v>
+        <v>91126.3342</v>
       </c>
       <c r="L11" s="1">
-        <v>13.2073</v>
+        <v>13.2338</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10670.7617</v>
+        <v>-10669.4177</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0115</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>12.3976</v>
       </c>
       <c r="C12" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D12" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E12" s="1">
-        <v>7759.701</v>
+        <v>7743.8934</v>
       </c>
       <c r="F12" s="1">
-        <v>860.7119</v>
+        <v>858.8854</v>
       </c>
       <c r="H12" s="1">
-        <v>96201.6697</v>
+        <v>95813.64380000001</v>
       </c>
       <c r="I12" s="1">
-        <v>1341.5234</v>
+        <v>1338.8353</v>
       </c>
       <c r="J12" s="1">
-        <v>97543.1931</v>
+        <v>97152.4791</v>
       </c>
       <c r="K12" s="1">
-        <v>101799.3553</v>
+        <v>101795.7519</v>
       </c>
       <c r="L12" s="1">
-        <v>13.119</v>
+        <v>13.1453</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3104.9415</v>
+        <v>3098.6514</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7565.8202</v>
+        <v>-7570.7662</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.001</v>
+        <v>-0.0014</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>12.9013</v>
       </c>
       <c r="C13" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D13" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E13" s="1">
-        <v>8620.412899999999</v>
+        <v>8602.778700000001</v>
       </c>
       <c r="F13" s="1">
-        <v>1067.7681</v>
+        <v>1065.0465</v>
       </c>
       <c r="H13" s="1">
-        <v>111214.5334</v>
+        <v>110765.0776</v>
       </c>
       <c r="I13" s="1">
-        <v>3775.7032</v>
+        <v>3768.0691</v>
       </c>
       <c r="J13" s="1">
-        <v>114990.2366</v>
+        <v>114533.1467</v>
       </c>
       <c r="K13" s="1">
-        <v>112470.117</v>
+        <v>112465.1695</v>
       </c>
       <c r="L13" s="1">
-        <v>13.047</v>
+        <v>13.0731</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13775.7032</v>
+        <v>-13768.0691</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0692</v>
+        <v>0.0689</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>13.3527</v>
       </c>
       <c r="C14" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D14" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E14" s="1">
-        <v>9688.181</v>
+        <v>9667.825199999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9688.181</v>
+        <v>-9667.825199999999</v>
       </c>
       <c r="H14" s="1">
-        <v>129363.3747</v>
+        <v>128833.439</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>129363.3747</v>
+        <v>128833.439</v>
       </c>
       <c r="K14" s="1">
-        <v>126245.8202</v>
+        <v>126233.2386</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0309</v>
+        <v>13.057</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>129363.3747</v>
+        <v>128833.439</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.035</v>
+        <v>0.0345</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>12.5846</v>
       </c>
       <c r="C2" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D2" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>794.622</v>
+        <v>793.034</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>12.2867</v>
       </c>
       <c r="C3" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D3" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E3" s="1">
-        <v>794.622</v>
+        <v>793.034</v>
       </c>
       <c r="F3" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9763.2821</v>
+        <v>9724.2621</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9763.2821</v>
+        <v>9724.2621</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0237</v>
+        <v>-0.0276</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>13.0645</v>
       </c>
       <c r="C4" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D4" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E4" s="1">
-        <v>1608.5102</v>
+        <v>1605.2959</v>
       </c>
       <c r="F4" s="1">
-        <v>687.7889</v>
+        <v>695.5999</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>21014.3813</v>
+        <v>20930.49</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21014.3813</v>
+        <v>20930.49</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.4339</v>
+        <v>12.4588</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8985.618700000001</v>
+        <v>-9105.8899</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0633</v>
+        <v>0.0612</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>13.8083</v>
       </c>
       <c r="C5" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D5" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E5" s="1">
-        <v>2296.2991</v>
+        <v>2300.8958</v>
       </c>
       <c r="F5" s="1">
-        <v>600.5093000000001</v>
+        <v>601.7144</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>31707.9873</v>
+        <v>31707.955</v>
       </c>
       <c r="I5" s="1">
-        <v>1014.3813</v>
+        <v>894.1101</v>
       </c>
       <c r="J5" s="1">
-        <v>32722.3686</v>
+        <v>32602.0651</v>
       </c>
       <c r="K5" s="1">
-        <v>28985.6187</v>
+        <v>29105.8899</v>
       </c>
       <c r="L5" s="1">
-        <v>12.6228</v>
+        <v>12.6498</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8292.012699999999</v>
+        <v>-8325.319799999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0551</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>13.5636</v>
       </c>
       <c r="C6" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D6" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E6" s="1">
-        <v>2896.8084</v>
+        <v>2902.6102</v>
       </c>
       <c r="F6" s="1">
-        <v>789.5285</v>
+        <v>791.1068</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>39291.151</v>
+        <v>39291.1826</v>
       </c>
       <c r="I6" s="1">
-        <v>2722.3686</v>
+        <v>2568.7903</v>
       </c>
       <c r="J6" s="1">
-        <v>42013.5196</v>
+        <v>41859.9729</v>
       </c>
       <c r="K6" s="1">
-        <v>37277.6314</v>
+        <v>37431.2097</v>
       </c>
       <c r="L6" s="1">
-        <v>12.8685</v>
+        <v>12.8957</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1033.3346</v>
+        <v>1035.4031</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9675.5144</v>
+        <v>-9716.3714</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0166</v>
+        <v>-0.0174</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>13.1788</v>
       </c>
       <c r="C7" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D7" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E7" s="1">
-        <v>3686.337</v>
+        <v>3693.717</v>
       </c>
       <c r="F7" s="1">
-        <v>866.4296000000001</v>
+        <v>868.1881</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>48581.4975</v>
+        <v>48581.2433</v>
       </c>
       <c r="I7" s="1">
-        <v>3046.8542</v>
+        <v>2852.4189</v>
       </c>
       <c r="J7" s="1">
-        <v>51628.3517</v>
+        <v>51433.6622</v>
       </c>
       <c r="K7" s="1">
-        <v>47986.4804</v>
+        <v>48182.9842</v>
       </c>
       <c r="L7" s="1">
-        <v>13.0174</v>
+        <v>13.0446</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-11418.5025</v>
+        <v>-11464.597</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0074</v>
+        <v>-0.008200000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>14.5668</v>
       </c>
       <c r="C8" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D8" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E8" s="1">
-        <v>4552.7666</v>
+        <v>4561.9051</v>
       </c>
       <c r="F8" s="1">
-        <v>252.6814</v>
+        <v>253.162</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>66319.24000000001</v>
+        <v>66319.60709999999</v>
       </c>
       <c r="I8" s="1">
-        <v>1628.3517</v>
+        <v>1387.8219</v>
       </c>
       <c r="J8" s="1">
-        <v>67947.5917</v>
+        <v>67707.4289</v>
       </c>
       <c r="K8" s="1">
-        <v>59404.9829</v>
+        <v>59647.5812</v>
       </c>
       <c r="L8" s="1">
-        <v>13.0481</v>
+        <v>13.0751</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-3680.76</v>
+        <v>-3695.1523</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.1025</v>
+        <v>0.1021</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>13.962</v>
       </c>
       <c r="C9" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D9" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E9" s="1">
-        <v>4805.448</v>
+        <v>4815.067</v>
       </c>
       <c r="F9" s="1">
-        <v>924.3901</v>
+        <v>926.2439000000001</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>67093.66499999999</v>
+        <v>67093.62549999999</v>
       </c>
       <c r="I9" s="1">
-        <v>7947.5917</v>
+        <v>7692.6696</v>
       </c>
       <c r="J9" s="1">
-        <v>75041.2568</v>
+        <v>74786.2951</v>
       </c>
       <c r="K9" s="1">
-        <v>63085.7429</v>
+        <v>63342.7335</v>
       </c>
       <c r="L9" s="1">
-        <v>13.128</v>
+        <v>13.1551</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2048.745</v>
+        <v>2052.8573</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10857.59</v>
+        <v>-10905.2942</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0373</v>
+        <v>-0.0376</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>12.2659</v>
       </c>
       <c r="C10" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D10" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E10" s="1">
-        <v>5729.8381</v>
+        <v>5741.3109</v>
       </c>
       <c r="F10" s="1">
-        <v>1393.2937</v>
+        <v>1365.8822</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>70281.62149999999</v>
+        <v>70281.68309999999</v>
       </c>
       <c r="I10" s="1">
-        <v>7090.0017</v>
+        <v>6787.3754</v>
       </c>
       <c r="J10" s="1">
-        <v>77371.62330000001</v>
+        <v>77069.05839999999</v>
       </c>
       <c r="K10" s="1">
-        <v>75992.0778</v>
+        <v>76300.88499999999</v>
       </c>
       <c r="L10" s="1">
-        <v>13.2625</v>
+        <v>13.2898</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-17090.0017</v>
+        <v>-16787.3754</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0902</v>
+        <v>-0.091</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>12.4103</v>
       </c>
       <c r="C11" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D11" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E11" s="1">
-        <v>7123.1319</v>
+        <v>7107.1931</v>
       </c>
       <c r="F11" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>88400.2035</v>
+        <v>88026.14019999999</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>88400.2035</v>
+        <v>88026.14019999999</v>
       </c>
       <c r="K11" s="1">
-        <v>93082.0796</v>
+        <v>93088.2604</v>
       </c>
       <c r="L11" s="1">
-        <v>13.0676</v>
+        <v>13.0978</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1969,7 +1969,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0118</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>12.3976</v>
       </c>
       <c r="C12" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D12" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E12" s="1">
-        <v>7928.9142</v>
+        <v>7911.3619</v>
       </c>
       <c r="F12" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>98299.50629999999</v>
+        <v>97885.69869999999</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>98299.50629999999</v>
+        <v>97885.69869999999</v>
       </c>
       <c r="K12" s="1">
-        <v>103082.0796</v>
+        <v>103088.2604</v>
       </c>
       <c r="L12" s="1">
-        <v>13.0008</v>
+        <v>13.0304</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3205.4093</v>
+        <v>3198.2369</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6794.5907</v>
+        <v>-6801.7631</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.001</v>
+        <v>-0.0014</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>12.9013</v>
       </c>
       <c r="C13" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D13" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E13" s="1">
-        <v>8735.5219</v>
+        <v>8716.3593</v>
       </c>
       <c r="F13" s="1">
-        <v>565.8663</v>
+        <v>603.6671</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>112699.5887</v>
+        <v>112227.4846</v>
       </c>
       <c r="I13" s="1">
-        <v>3205.4093</v>
+        <v>3198.2369</v>
       </c>
       <c r="J13" s="1">
-        <v>115904.998</v>
+        <v>115425.7215</v>
       </c>
       <c r="K13" s="1">
-        <v>113082.0796</v>
+        <v>113088.2604</v>
       </c>
       <c r="L13" s="1">
-        <v>12.9451</v>
+        <v>12.9743</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7300.4679</v>
+        <v>-7803.725</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0702</v>
+        <v>0.0699</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>13.3527</v>
       </c>
       <c r="C14" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D14" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E14" s="1">
-        <v>9301.388199999999</v>
+        <v>9320.026400000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9301.388199999999</v>
+        <v>-9320.026400000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>124198.6466</v>
+        <v>124198.6719</v>
       </c>
       <c r="I14" s="1">
-        <v>5904.9415</v>
+        <v>5394.5119</v>
       </c>
       <c r="J14" s="1">
-        <v>130103.5881</v>
+        <v>129593.1838</v>
       </c>
       <c r="K14" s="1">
-        <v>120382.5475</v>
+        <v>120891.9853</v>
       </c>
       <c r="L14" s="1">
-        <v>12.9424</v>
+        <v>12.9712</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124198.6466</v>
+        <v>124198.6719</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0333</v>
+        <v>0.0332</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>12.5846</v>
       </c>
       <c r="C2" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D2" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>794.622</v>
+        <v>793.034</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>12.2867</v>
       </c>
       <c r="C3" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D3" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E3" s="1">
-        <v>794.622</v>
+        <v>793.034</v>
       </c>
       <c r="F3" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9763.2821</v>
+        <v>9724.2621</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9763.2821</v>
+        <v>9724.2621</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0237</v>
+        <v>-0.0276</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>13.0645</v>
       </c>
       <c r="C4" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D4" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E4" s="1">
-        <v>1608.5102</v>
+        <v>1605.2959</v>
       </c>
       <c r="F4" s="1">
-        <v>699.2896</v>
+        <v>707.1236</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21014.3813</v>
+        <v>20930.49</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21014.3813</v>
+        <v>20930.49</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.4339</v>
+        <v>12.4588</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9135.868700000001</v>
+        <v>-9256.7426</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0633</v>
+        <v>0.0612</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>13.8083</v>
       </c>
       <c r="C5" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D5" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E5" s="1">
-        <v>2307.7998</v>
+        <v>2312.4195</v>
       </c>
       <c r="F5" s="1">
-        <v>610.8073000000001</v>
+        <v>612.0329</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>31866.7915</v>
+        <v>31866.759</v>
       </c>
       <c r="I5" s="1">
-        <v>864.1313</v>
+        <v>743.2574</v>
       </c>
       <c r="J5" s="1">
-        <v>32730.9228</v>
+        <v>32610.0164</v>
       </c>
       <c r="K5" s="1">
-        <v>29135.8687</v>
+        <v>29256.7426</v>
       </c>
       <c r="L5" s="1">
-        <v>12.625</v>
+        <v>12.652</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8434.209800000001</v>
+        <v>-8468.0877</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0553</v>
+        <v>0.0543</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>13.5636</v>
       </c>
       <c r="C6" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D6" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E6" s="1">
-        <v>2918.607</v>
+        <v>2924.4524</v>
       </c>
       <c r="F6" s="1">
-        <v>804.7781</v>
+        <v>806.3869</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>39586.8181</v>
+        <v>39586.85</v>
       </c>
       <c r="I6" s="1">
-        <v>2429.9215</v>
+        <v>2275.1697</v>
       </c>
       <c r="J6" s="1">
-        <v>42016.7397</v>
+        <v>41862.0197</v>
       </c>
       <c r="K6" s="1">
-        <v>37570.0785</v>
+        <v>37724.8303</v>
       </c>
       <c r="L6" s="1">
-        <v>12.8726</v>
+        <v>12.8998</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1038.5099</v>
+        <v>1040.5888</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9877.1782</v>
+        <v>-9918.854300000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0167</v>
+        <v>-0.0176</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>13.1788</v>
       </c>
       <c r="C7" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D7" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E7" s="1">
-        <v>3723.3851</v>
+        <v>3730.8393</v>
       </c>
       <c r="F7" s="1">
-        <v>886.6719000000001</v>
+        <v>888.4711</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>49069.7477</v>
+        <v>49069.4909</v>
       </c>
       <c r="I7" s="1">
-        <v>2552.7433</v>
+        <v>2356.3154</v>
       </c>
       <c r="J7" s="1">
-        <v>51622.491</v>
+        <v>51425.8063</v>
       </c>
       <c r="K7" s="1">
-        <v>48485.7666</v>
+        <v>48684.2734</v>
       </c>
       <c r="L7" s="1">
-        <v>13.022</v>
+        <v>13.0491</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-11685.2711</v>
+        <v>-11732.4392</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0076</v>
+        <v>-0.008399999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>14.5668</v>
       </c>
       <c r="C8" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D8" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E8" s="1">
-        <v>4610.057</v>
+        <v>4619.3105</v>
       </c>
       <c r="F8" s="1">
-        <v>268.0764</v>
+        <v>268.5875</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>67153.7779</v>
+        <v>67154.1496</v>
       </c>
       <c r="I8" s="1">
-        <v>867.4722</v>
+        <v>623.8762</v>
       </c>
       <c r="J8" s="1">
-        <v>68021.25</v>
+        <v>67778.0258</v>
       </c>
       <c r="K8" s="1">
-        <v>60171.0377</v>
+        <v>60416.7125</v>
       </c>
       <c r="L8" s="1">
-        <v>13.0521</v>
+        <v>13.0792</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-3905.016</v>
+        <v>-3920.303</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.1038</v>
+        <v>0.1034</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>13.962</v>
       </c>
       <c r="C9" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D9" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E9" s="1">
-        <v>4878.1334</v>
+        <v>4887.8979</v>
       </c>
       <c r="F9" s="1">
-        <v>952.9859</v>
+        <v>954.8969</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>68108.4988</v>
+        <v>68108.4587</v>
       </c>
       <c r="I9" s="1">
-        <v>6962.4562</v>
+        <v>6703.5732</v>
       </c>
       <c r="J9" s="1">
-        <v>75070.9549</v>
+        <v>74812.0319</v>
       </c>
       <c r="K9" s="1">
-        <v>64076.0537</v>
+        <v>64337.0155</v>
       </c>
       <c r="L9" s="1">
-        <v>13.1354</v>
+        <v>13.1625</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2074.5256</v>
+        <v>2078.6897</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11231.0634</v>
+        <v>-11280.3182</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0378</v>
+        <v>-0.0381</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>12.2659</v>
       </c>
       <c r="C10" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D10" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E10" s="1">
-        <v>5831.1193</v>
+        <v>5842.7949</v>
       </c>
       <c r="F10" s="1">
-        <v>1282.5307</v>
+        <v>1254.8924</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>71523.9264</v>
+        <v>71523.989</v>
       </c>
       <c r="I10" s="1">
-        <v>5731.3927</v>
+        <v>5423.255</v>
       </c>
       <c r="J10" s="1">
-        <v>77255.31909999999</v>
+        <v>76947.24400000001</v>
       </c>
       <c r="K10" s="1">
-        <v>77381.6428</v>
+        <v>77696.02340000001</v>
       </c>
       <c r="L10" s="1">
-        <v>13.2705</v>
+        <v>13.2977</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-15731.3927</v>
+        <v>-15423.255</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0919</v>
+        <v>-0.0927</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>12.4103</v>
       </c>
       <c r="C11" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D11" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E11" s="1">
-        <v>7113.65</v>
+        <v>7097.6873</v>
       </c>
       <c r="F11" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>88282.53019999999</v>
+        <v>87908.4056</v>
       </c>
       <c r="I11" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>88282.53019999999</v>
+        <v>87908.4056</v>
       </c>
       <c r="K11" s="1">
-        <v>93113.0355</v>
+        <v>93119.2785</v>
       </c>
       <c r="L11" s="1">
-        <v>13.0893</v>
+        <v>13.1197</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2737,7 +2737,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0118</v>
+        <v>0.0111</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>12.3976</v>
       </c>
       <c r="C12" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D12" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E12" s="1">
-        <v>7919.4323</v>
+        <v>7901.8561</v>
       </c>
       <c r="F12" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>98181.9534</v>
+        <v>97768.0848</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>98181.9534</v>
+        <v>97768.0848</v>
       </c>
       <c r="K12" s="1">
-        <v>103113.0355</v>
+        <v>103119.2785</v>
       </c>
       <c r="L12" s="1">
-        <v>13.0203</v>
+        <v>13.05</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3201.1425</v>
+        <v>3193.9593</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6798.8575</v>
+        <v>-6806.0407</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.001</v>
+        <v>-0.0014</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>12.9013</v>
       </c>
       <c r="C13" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D13" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E13" s="1">
-        <v>8726.040000000001</v>
+        <v>8706.853499999999</v>
       </c>
       <c r="F13" s="1">
-        <v>835.4479</v>
+        <v>873.7938</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>112577.2597</v>
+        <v>112105.0922</v>
       </c>
       <c r="I13" s="1">
-        <v>3201.1425</v>
+        <v>3193.9593</v>
       </c>
       <c r="J13" s="1">
-        <v>115778.4022</v>
+        <v>115299.0514</v>
       </c>
       <c r="K13" s="1">
-        <v>113113.0355</v>
+        <v>113119.2785</v>
       </c>
       <c r="L13" s="1">
-        <v>12.9627</v>
+        <v>12.992</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10778.4476</v>
+        <v>-11295.7067</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0702</v>
+        <v>0.0699</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>13.3527</v>
       </c>
       <c r="C14" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D14" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E14" s="1">
-        <v>9561.4879</v>
+        <v>9580.647300000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9561.4879</v>
+        <v>-9580.647300000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>127671.6794</v>
+        <v>127671.7053</v>
       </c>
       <c r="I14" s="1">
-        <v>2422.6949</v>
+        <v>1898.2526</v>
       </c>
       <c r="J14" s="1">
-        <v>130094.3743</v>
+        <v>129569.9579</v>
       </c>
       <c r="K14" s="1">
-        <v>123891.4831</v>
+        <v>124414.9852</v>
       </c>
       <c r="L14" s="1">
-        <v>12.9573</v>
+        <v>12.9861</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>127671.6794</v>
+        <v>127671.7053</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0343</v>
+        <v>0.0341</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>12.5846</v>
       </c>
       <c r="C2" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D2" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>794.622</v>
+        <v>793.034</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>12.2867</v>
       </c>
       <c r="C3" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D3" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E3" s="1">
-        <v>794.622</v>
+        <v>793.034</v>
       </c>
       <c r="F3" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9763.2821</v>
+        <v>9724.2621</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9763.2821</v>
+        <v>9724.2621</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0237</v>
+        <v>-0.0276</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>13.0645</v>
       </c>
       <c r="C4" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D4" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E4" s="1">
-        <v>1608.5102</v>
+        <v>1605.2959</v>
       </c>
       <c r="F4" s="1">
-        <v>710.8285</v>
+        <v>718.6856</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>21014.3813</v>
+        <v>20930.49</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21014.3813</v>
+        <v>20930.49</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.4339</v>
+        <v>12.4588</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9286.618700000001</v>
+        <v>-9408.097299999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0633</v>
+        <v>0.0612</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>13.8083</v>
       </c>
       <c r="C5" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D5" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E5" s="1">
-        <v>2319.3387</v>
+        <v>2323.9815</v>
       </c>
       <c r="F5" s="1">
-        <v>621.2123</v>
+        <v>622.4588</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>32026.1241</v>
+        <v>32026.0914</v>
       </c>
       <c r="I5" s="1">
-        <v>713.3813</v>
+        <v>591.9027</v>
       </c>
       <c r="J5" s="1">
-        <v>32739.5054</v>
+        <v>32617.9942</v>
       </c>
       <c r="K5" s="1">
-        <v>29286.6187</v>
+        <v>29408.0973</v>
       </c>
       <c r="L5" s="1">
-        <v>12.6271</v>
+        <v>12.6542</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8577.885899999999</v>
+        <v>-8612.3405</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0556</v>
+        <v>0.0546</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>13.5636</v>
       </c>
       <c r="C6" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D6" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E6" s="1">
-        <v>2940.551</v>
+        <v>2946.4403</v>
       </c>
       <c r="F6" s="1">
-        <v>820.2537</v>
+        <v>821.8935</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>39884.4572</v>
+        <v>39884.4893</v>
       </c>
       <c r="I6" s="1">
-        <v>2135.4954</v>
+        <v>1979.5622</v>
       </c>
       <c r="J6" s="1">
-        <v>42019.9526</v>
+        <v>41864.0515</v>
       </c>
       <c r="K6" s="1">
-        <v>37864.5046</v>
+        <v>38020.4378</v>
       </c>
       <c r="L6" s="1">
-        <v>12.8767</v>
+        <v>12.9039</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1043.7024</v>
+        <v>1045.7917</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10081.8905</v>
+        <v>-10124.398</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0168</v>
+        <v>-0.0177</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>13.1788</v>
       </c>
       <c r="C7" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D7" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E7" s="1">
-        <v>3760.8047</v>
+        <v>3768.3338</v>
       </c>
       <c r="F7" s="1">
-        <v>907.3101</v>
+        <v>897.7648</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>49562.8925</v>
+        <v>49562.6331</v>
       </c>
       <c r="I7" s="1">
-        <v>2053.6049</v>
+        <v>1855.1642</v>
       </c>
       <c r="J7" s="1">
-        <v>51616.4974</v>
+        <v>51417.7973</v>
       </c>
       <c r="K7" s="1">
-        <v>48990.0975</v>
+        <v>49190.6274</v>
       </c>
       <c r="L7" s="1">
-        <v>13.0265</v>
+        <v>13.0537</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-11957.2581</v>
+        <v>-11855.1642</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0078</v>
+        <v>-0.0086</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>14.5668</v>
       </c>
       <c r="C8" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D8" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E8" s="1">
-        <v>4668.1147</v>
+        <v>4666.0986</v>
       </c>
       <c r="F8" s="1">
-        <v>283.9236</v>
+        <v>295.8522</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>67999.4939</v>
+        <v>67834.34179999999</v>
       </c>
       <c r="I8" s="1">
-        <v>96.3468</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>68095.8406</v>
+        <v>67834.34179999999</v>
       </c>
       <c r="K8" s="1">
-        <v>60947.3556</v>
+        <v>61045.7917</v>
       </c>
       <c r="L8" s="1">
-        <v>13.0561</v>
+        <v>13.0828</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-4135.8582</v>
+        <v>-4318.2585</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.1052</v>
+        <v>0.1045</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>13.962</v>
       </c>
       <c r="C9" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D9" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E9" s="1">
-        <v>4952.0383</v>
+        <v>4961.9508</v>
       </c>
       <c r="F9" s="1">
-        <v>982.4056</v>
+        <v>984.3755</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>69140.3593</v>
+        <v>69140.3186</v>
       </c>
       <c r="I9" s="1">
-        <v>5960.4885</v>
+        <v>5681.7415</v>
       </c>
       <c r="J9" s="1">
-        <v>75100.8478</v>
+        <v>74822.0601</v>
       </c>
       <c r="K9" s="1">
-        <v>65083.2139</v>
+        <v>65364.0502</v>
       </c>
       <c r="L9" s="1">
-        <v>13.1427</v>
+        <v>13.1731</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2100.6516</v>
+        <v>2099.7444</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11615.6947</v>
+        <v>-11671.6692</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0384</v>
+        <v>-0.0387</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>12.2659</v>
       </c>
       <c r="C10" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D10" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E10" s="1">
-        <v>5934.4439</v>
+        <v>5946.3263</v>
       </c>
       <c r="F10" s="1">
-        <v>1169.4856</v>
+        <v>1139.9107</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>72791.2953</v>
+        <v>72791.3591</v>
       </c>
       <c r="I10" s="1">
-        <v>4344.7939</v>
+        <v>4010.0722</v>
       </c>
       <c r="J10" s="1">
-        <v>77136.0892</v>
+        <v>76801.4313</v>
       </c>
       <c r="K10" s="1">
-        <v>78799.56020000001</v>
+        <v>79135.4638</v>
       </c>
       <c r="L10" s="1">
-        <v>13.2783</v>
+        <v>13.3083</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-14344.7939</v>
+        <v>-14010.0722</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0936</v>
+        <v>-0.0946</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>12.4103</v>
       </c>
       <c r="C11" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D11" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E11" s="1">
-        <v>7103.9295</v>
+        <v>7086.237</v>
       </c>
       <c r="F11" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>88161.89659999999</v>
+        <v>87766.58839999999</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>88161.89659999999</v>
+        <v>87766.58839999999</v>
       </c>
       <c r="K11" s="1">
-        <v>93144.35400000001</v>
+        <v>93145.53599999999</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1117</v>
+        <v>13.1446</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0118</v>
+        <v>0.0111</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>12.3976</v>
       </c>
       <c r="C12" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D12" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E12" s="1">
-        <v>7909.7118</v>
+        <v>7890.4058</v>
       </c>
       <c r="F12" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>98061.4433</v>
+        <v>97626.41310000001</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>98061.4433</v>
+        <v>97626.41310000001</v>
       </c>
       <c r="K12" s="1">
-        <v>103144.354</v>
+        <v>103145.536</v>
       </c>
       <c r="L12" s="1">
-        <v>13.0402</v>
+        <v>13.0723</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3196.7683</v>
+        <v>3188.8067</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6803.2317</v>
+        <v>-6811.1933</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.001</v>
+        <v>-0.0014</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>12.9013</v>
       </c>
       <c r="C13" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D13" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E13" s="1">
-        <v>8716.319600000001</v>
+        <v>8695.403200000001</v>
       </c>
       <c r="F13" s="1">
-        <v>1022.8943</v>
+        <v>1020.2369</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>112451.8534</v>
+        <v>111957.6644</v>
       </c>
       <c r="I13" s="1">
-        <v>3196.7683</v>
+        <v>3188.8067</v>
       </c>
       <c r="J13" s="1">
-        <v>115648.6217</v>
+        <v>115146.4711</v>
       </c>
       <c r="K13" s="1">
-        <v>113144.354</v>
+        <v>113145.536</v>
       </c>
       <c r="L13" s="1">
-        <v>12.9807</v>
+        <v>13.0121</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13196.7683</v>
+        <v>-13188.8067</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0702</v>
+        <v>0.0699</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>13.3527</v>
       </c>
       <c r="C14" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D14" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E14" s="1">
-        <v>9739.2138</v>
+        <v>9715.6402</v>
       </c>
       <c r="F14" s="1">
-        <v>-9739.2138</v>
+        <v>-9715.6402</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>130044.8006</v>
+        <v>129470.6207</v>
       </c>
       <c r="I14" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>130044.8006</v>
+        <v>129470.6207</v>
       </c>
       <c r="K14" s="1">
-        <v>126341.1223</v>
+        <v>126334.3427</v>
       </c>
       <c r="L14" s="1">
-        <v>12.9724</v>
+        <v>13.0032</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>130044.8006</v>
+        <v>129470.6207</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.035</v>
+        <v>0.0346</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>12.5846</v>
       </c>
       <c r="C2" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D2" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>794.622</v>
+        <v>793.034</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>12.2867</v>
       </c>
       <c r="C3" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D3" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E3" s="1">
-        <v>794.622</v>
+        <v>793.034</v>
       </c>
       <c r="F3" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9763.2821</v>
+        <v>9724.2621</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9763.2821</v>
+        <v>9724.2621</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0237</v>
+        <v>-0.0276</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>13.0645</v>
       </c>
       <c r="C4" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D4" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E4" s="1">
-        <v>1608.5102</v>
+        <v>1605.2959</v>
       </c>
       <c r="F4" s="1">
-        <v>722.4057</v>
+        <v>730.2859</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21014.3813</v>
+        <v>20930.49</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21014.3813</v>
+        <v>20930.49</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.4339</v>
+        <v>12.4588</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9437.868700000001</v>
+        <v>-9559.954</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0633</v>
+        <v>0.0612</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>13.8083</v>
       </c>
       <c r="C5" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D5" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E5" s="1">
-        <v>2330.9158</v>
+        <v>2335.5818</v>
       </c>
       <c r="F5" s="1">
-        <v>631.725</v>
+        <v>632.9926</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>32185.9852</v>
+        <v>32185.9524</v>
       </c>
       <c r="I5" s="1">
-        <v>562.1313</v>
+        <v>440.046</v>
       </c>
       <c r="J5" s="1">
-        <v>32748.1165</v>
+        <v>32625.9984</v>
       </c>
       <c r="K5" s="1">
-        <v>29437.8687</v>
+        <v>29559.954</v>
       </c>
       <c r="L5" s="1">
-        <v>12.6293</v>
+        <v>12.6564</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8723.048500000001</v>
+        <v>-8758.0859</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0559</v>
+        <v>0.0548</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>13.5636</v>
       </c>
       <c r="C6" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D6" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E6" s="1">
-        <v>2962.6409</v>
+        <v>2968.5744</v>
       </c>
       <c r="F6" s="1">
-        <v>835.9575</v>
+        <v>837.6287</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>40184.0755</v>
+        <v>40184.1079</v>
       </c>
       <c r="I6" s="1">
-        <v>1839.0828</v>
+        <v>1681.9602</v>
       </c>
       <c r="J6" s="1">
-        <v>42023.1583</v>
+        <v>41866.0681</v>
       </c>
       <c r="K6" s="1">
-        <v>38160.9172</v>
+        <v>38318.0398</v>
       </c>
       <c r="L6" s="1">
-        <v>12.8807</v>
+        <v>12.9079</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1048.9121</v>
+        <v>1051.0118</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10289.6816</v>
+        <v>-10333.0328</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.017</v>
+        <v>-0.0178</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>13.1788</v>
       </c>
       <c r="C7" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D7" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E7" s="1">
-        <v>3798.5984</v>
+        <v>3806.2032</v>
       </c>
       <c r="F7" s="1">
-        <v>876.3621000000001</v>
+        <v>859.4287</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>50060.9686</v>
+        <v>50060.7066</v>
       </c>
       <c r="I7" s="1">
-        <v>1549.4012</v>
+        <v>1348.9274</v>
       </c>
       <c r="J7" s="1">
-        <v>51610.3698</v>
+        <v>51409.634</v>
       </c>
       <c r="K7" s="1">
-        <v>49499.5109</v>
+        <v>49702.0844</v>
       </c>
       <c r="L7" s="1">
-        <v>13.031</v>
+        <v>13.0582</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-11549.4012</v>
+        <v>-11348.9274</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.007900000000000001</v>
+        <v>-0.008800000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>14.5668</v>
       </c>
       <c r="C8" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D8" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E8" s="1">
-        <v>4674.9605</v>
+        <v>4665.6318</v>
       </c>
       <c r="F8" s="1">
-        <v>352.2206</v>
+        <v>371.6122</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>68099.215</v>
+        <v>67827.556</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>68099.215</v>
+        <v>67827.556</v>
       </c>
       <c r="K8" s="1">
-        <v>61048.9121</v>
+        <v>61051.0118</v>
       </c>
       <c r="L8" s="1">
-        <v>13.0587</v>
+        <v>13.0853</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-5130.7269</v>
+        <v>-5424.051</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.1053</v>
+        <v>0.1045</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>13.962</v>
       </c>
       <c r="C9" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D9" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E9" s="1">
-        <v>5027.1811</v>
+        <v>5037.244</v>
       </c>
       <c r="F9" s="1">
-        <v>1012.6693</v>
+        <v>1014.6999</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>70189.5028</v>
+        <v>70189.4615</v>
       </c>
       <c r="I9" s="1">
-        <v>4869.2731</v>
+        <v>4575.949</v>
       </c>
       <c r="J9" s="1">
-        <v>75058.7758</v>
+        <v>74765.4105</v>
       </c>
       <c r="K9" s="1">
-        <v>66179.6391</v>
+        <v>66475.0628</v>
       </c>
       <c r="L9" s="1">
-        <v>13.1644</v>
+        <v>13.1967</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2103.7322</v>
+        <v>2099.5343</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-12035.156</v>
+        <v>-12096.117</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0389</v>
+        <v>-0.0393</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>12.2659</v>
       </c>
       <c r="C10" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D10" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E10" s="1">
-        <v>6039.8504</v>
+        <v>6051.9439</v>
       </c>
       <c r="F10" s="1">
-        <v>1046.3249</v>
+        <v>1015.4047</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>74084.20080000001</v>
+        <v>74084.2657</v>
       </c>
       <c r="I10" s="1">
-        <v>2834.117</v>
+        <v>2479.832</v>
       </c>
       <c r="J10" s="1">
-        <v>76918.3178</v>
+        <v>76564.0977</v>
       </c>
       <c r="K10" s="1">
-        <v>80318.5273</v>
+        <v>80670.7141</v>
       </c>
       <c r="L10" s="1">
-        <v>13.2981</v>
+        <v>13.3297</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-12834.117</v>
+        <v>-12479.832</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.09569999999999999</v>
+        <v>-0.0968</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>12.4103</v>
       </c>
       <c r="C11" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D11" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E11" s="1">
-        <v>7086.1753</v>
+        <v>7067.3486</v>
       </c>
       <c r="F11" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>87941.5616</v>
+        <v>87532.64629999999</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>87941.5616</v>
+        <v>87532.64629999999</v>
       </c>
       <c r="K11" s="1">
-        <v>93152.6444</v>
+        <v>93150.54610000001</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1457</v>
+        <v>13.1804</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0118</v>
+        <v>0.0112</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>12.3976</v>
       </c>
       <c r="C12" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D12" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E12" s="1">
-        <v>7891.9576</v>
+        <v>7871.5174</v>
       </c>
       <c r="F12" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>97841.3337</v>
+        <v>97392.7108</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>97841.3337</v>
+        <v>97392.7108</v>
       </c>
       <c r="K12" s="1">
-        <v>103152.6444</v>
+        <v>103150.5461</v>
       </c>
       <c r="L12" s="1">
-        <v>13.0706</v>
+        <v>13.1043</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3188.7789</v>
+        <v>3180.3069</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6811.2211</v>
+        <v>-6819.6931</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.001</v>
+        <v>-0.0014</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>12.9013</v>
       </c>
       <c r="C13" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D13" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E13" s="1">
-        <v>8698.5653</v>
+        <v>8676.514800000001</v>
       </c>
       <c r="F13" s="1">
-        <v>1022.275</v>
+        <v>1019.5794</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>112222.8011</v>
+        <v>111714.467</v>
       </c>
       <c r="I13" s="1">
-        <v>3188.7789</v>
+        <v>3180.3069</v>
       </c>
       <c r="J13" s="1">
-        <v>115411.58</v>
+        <v>114894.7738</v>
       </c>
       <c r="K13" s="1">
-        <v>113152.6444</v>
+        <v>113150.5461</v>
       </c>
       <c r="L13" s="1">
-        <v>13.0082</v>
+        <v>13.041</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13188.7789</v>
+        <v>-13180.3069</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0702</v>
+        <v>0.0699</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>13.3527</v>
       </c>
       <c r="C14" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D14" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E14" s="1">
-        <v>9720.840399999999</v>
+        <v>9696.094300000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9720.840399999999</v>
+        <v>-9696.094300000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>129799.4651</v>
+        <v>129210.152</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>129799.4651</v>
+        <v>129210.152</v>
       </c>
       <c r="K14" s="1">
-        <v>126341.4233</v>
+        <v>126330.853</v>
       </c>
       <c r="L14" s="1">
-        <v>12.997</v>
+        <v>13.029</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>129799.4651</v>
+        <v>129210.152</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.035</v>
+        <v>0.0346</v>
       </c>
     </row>
   </sheetData>
@@ -4452,9 +4452,9 @@
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.0309</v>
+        <v>13.057</v>
       </c>
       <c r="D3" s="1">
-        <v>12.9424</v>
+        <v>12.9712</v>
       </c>
       <c r="E3" s="1">
-        <v>12.9573</v>
+        <v>12.9861</v>
       </c>
       <c r="F3" s="1">
-        <v>12.9724</v>
+        <v>13.0032</v>
       </c>
       <c r="G3" s="1">
-        <v>12.997</v>
+        <v>13.029</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.07920000000000001</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1522</v>
+        <v>0.1398</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1601</v>
+        <v>0.1482</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1601</v>
+        <v>0.1481</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1598</v>
+        <v>0.1472</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1573</v>
+        <v>0.1443</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4539,16 +4539,16 @@
         <v>0.1847</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1789</v>
+        <v>0.1794</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1809</v>
+        <v>0.1814</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1829</v>
+        <v>0.1833</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1845</v>
+        <v>0.1849</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.298</v>
       </c>
       <c r="C6" s="4">
-        <v>0.7141</v>
+        <v>0.6468</v>
       </c>
       <c r="D6" s="4">
-        <v>0.7811</v>
+        <v>0.7125</v>
       </c>
       <c r="E6" s="4">
-        <v>0.7727000000000001</v>
+        <v>0.704</v>
       </c>
       <c r="F6" s="4">
-        <v>0.7627</v>
+        <v>0.6918</v>
       </c>
       <c r="G6" s="4">
-        <v>0.7422</v>
+        <v>0.6707</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1496</v>
+        <v>0.1409</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1661</v>
+        <v>0.1572</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1643</v>
+        <v>0.1552</v>
       </c>
       <c r="F7" s="3">
-        <v>0.1621</v>
+        <v>0.1523</v>
       </c>
       <c r="G7" s="3">
-        <v>0.1572</v>
+        <v>0.1473</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>6245.8202</v>
+        <v>6233.2386</v>
       </c>
       <c r="D8" s="1">
-        <v>6287.4889</v>
+        <v>6286.4973</v>
       </c>
       <c r="E8" s="1">
-        <v>6314.178</v>
+        <v>6313.2377</v>
       </c>
       <c r="F8" s="1">
-        <v>6341.1223</v>
+        <v>6334.3427</v>
       </c>
       <c r="G8" s="1">
-        <v>6341.4233</v>
+        <v>6330.853</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P23_KFSDIV.xlsx
+++ b/output/1Y_P23_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.5846</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.2867</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.0645</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.8083</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.5636</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.1788</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.5668</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.962</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.2659</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.4103</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.3976</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.9013</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.3527</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.5846</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.2867</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.0645</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.8083</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.5636</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.1788</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.5668</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.962</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.2659</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.4103</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.3976</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.9013</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.3527</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.5846</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.2867</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.0645</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.8083</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.5636</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.1788</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.5668</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.962</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.2659</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.4103</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.3976</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.9013</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.3527</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.5846</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.2867</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.0645</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.8083</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.5636</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.1788</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.5668</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.962</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.2659</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.4103</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.3976</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.9013</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.3527</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.5846</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.2867</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.0645</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.8083</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.5636</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.1788</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.5668</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.962</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.2659</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.4103</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.3976</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.9013</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.3527</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>7533.7592</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0207</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.082</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0513</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0253</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0238</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
